--- a/Documentação/PRODUCT BACKLOG.xlsx
+++ b/Documentação/PRODUCT BACKLOG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,87 @@
   </si>
   <si>
     <t>Segundo tópico da documentação.</t>
+  </si>
+  <si>
+    <t>Casos de uso UML</t>
+  </si>
+  <si>
+    <t>Teórico.</t>
+  </si>
+  <si>
+    <t>Modelagem do banco</t>
+  </si>
+  <si>
+    <t>Código do Arduino</t>
+  </si>
+  <si>
+    <t>Criação do banco no Azure</t>
+  </si>
+  <si>
+    <t>Conexão e interação do
+sistema com o banco</t>
+  </si>
+  <si>
+    <t>Gerenciamento de incubadoras</t>
+  </si>
+  <si>
+    <t>Modelagem conceitual e lógica do banco de dados.</t>
+  </si>
+  <si>
+    <t>Criação das tabelas e das relações (modelagem física).</t>
+  </si>
+  <si>
+    <t>Possibilidade de conexão e CRUD.</t>
+  </si>
+  <si>
+    <t>Gerenciamento de recém-nascidos</t>
+  </si>
+  <si>
+    <t>CRUD de recém-nascidos(HTML, Javasscript, CSS-provisório)</t>
+  </si>
+  <si>
+    <t>Teórico</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>Código do Arduíno - temperatura e umidade com DHT11.</t>
+  </si>
+  <si>
+    <t>Relatórios</t>
+  </si>
+  <si>
+    <t>Gráficos</t>
+  </si>
+  <si>
+    <t>CRUD de incubadoras e exibição das temperaturas e
+umidades (HTML, Javascript, CSS-provisório).</t>
+  </si>
+  <si>
+    <t>Gráficos de temperatura e umidade em relação ao tempo,
+comparações entre dados de incubadoras diferentes.</t>
+  </si>
+  <si>
+    <t>Estilização do front-end</t>
+  </si>
+  <si>
+    <t>Design de todo o site.</t>
+  </si>
+  <si>
+    <t>Relatórios de alta dos bebês, de temperatura e umidade em relação ao tempo, comparações entre dados de incubadoras diferentes.</t>
+  </si>
+  <si>
+    <t>Sistema de login</t>
+  </si>
+  <si>
+    <t>Níveis de acesso</t>
+  </si>
+  <si>
+    <t>Cadastro e login com diferentes níveis de acesso.</t>
+  </si>
+  <si>
+    <t>Configuração de permissões de acordo com nível de acesso</t>
   </si>
 </sst>
 </file>
@@ -90,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -113,25 +194,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,118 +584,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Documentação/PRODUCT BACKLOG.xlsx
+++ b/Documentação/PRODUCT BACKLOG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Configuração de permissões de acordo com nível de acesso</t>
+  </si>
+  <si>
+    <t>RESPONSÁVEL</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -287,23 +290,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,32 +601,37 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4">
@@ -629,48 +640,52 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="7">
@@ -679,121 +694,131 @@
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
       <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
       <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A16"/>
   </mergeCells>

--- a/Documentação/PRODUCT BACKLOG.xlsx
+++ b/Documentação/PRODUCT BACKLOG.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -106,10 +106,6 @@
 umidades (HTML, Javascript, CSS-provisório).</t>
   </si>
   <si>
-    <t>Gráficos de temperatura e umidade em relação ao tempo,
-comparações entre dados de incubadoras diferentes.</t>
-  </si>
-  <si>
     <t>Estilização do front-end</t>
   </si>
   <si>
@@ -131,7 +127,19 @@
     <t>Configuração de permissões de acordo com nível de acesso</t>
   </si>
   <si>
-    <t>RESPONSÁVEL</t>
+    <t>YUD</t>
+  </si>
+  <si>
+    <t>ROD</t>
+  </si>
+  <si>
+    <t>LUC</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Gráficos de temperatura e umidade em relação ao tempo, Comparações entre dados de incubadoras diferentes.</t>
   </si>
 </sst>
 </file>
@@ -154,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +181,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9933FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -260,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,9 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +338,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -316,6 +393,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9933FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -590,48 +672,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4">
@@ -640,26 +734,32 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -667,66 +767,81 @@
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9">
+    <row r="6" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="7">
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -734,25 +849,31 @@
         <v>14</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -760,65 +881,80 @@
         <v>24</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="13" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A16"/>
   </mergeCells>

--- a/Documentação/PRODUCT BACKLOG.xlsx
+++ b/Documentação/PRODUCT BACKLOG.xlsx
@@ -62,9 +62,6 @@
     <t>Código do Arduino</t>
   </si>
   <si>
-    <t>Criação do banco no Azure</t>
-  </si>
-  <si>
     <t>Conexão e interação do
 sistema com o banco</t>
   </si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Gráficos de temperatura e umidade em relação ao tempo, Comparações entre dados de incubadoras diferentes.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do banco no Azure</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -324,6 +330,54 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,53 +393,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,7 +684,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,15 +698,15 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -708,25 +717,25 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>20</v>
+      <c r="A3" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -734,32 +743,32 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="26"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="26"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -767,15 +776,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -784,15 +793,15 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>21</v>
+      <c r="A7" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
@@ -800,156 +809,156 @@
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="18"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/PRODUCT BACKLOG.xlsx
+++ b/Documentação/PRODUCT BACKLOG.xlsx
@@ -378,6 +378,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,9 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,15 +698,15 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4">
@@ -752,7 +752,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -768,7 +768,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -800,7 +800,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6">
@@ -818,7 +818,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -834,7 +834,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -850,7 +850,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -866,7 +866,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -898,7 +898,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -930,7 +930,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -940,13 +940,13 @@
       <c r="D15" s="4"/>
       <c r="E15" s="15"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="34"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4">
         <v>14</v>
       </c>
